--- a/final/FinalProjectPlan.xlsx
+++ b/final/FinalProjectPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0a7021740a9b5109/BYU-Idaho/Spring 2023/CSE 120/CSE-210-projects/final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{D626CA43-4253-40D8-9BF2-128D88306B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CD1BE18-1DB6-48A9-A1E0-FB5586135344}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{D626CA43-4253-40D8-9BF2-128D88306B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9A5AF78-9E7E-4B7C-BA4E-A311A155DBE2}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="465" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{81D45181-2DFD-4E78-A47D-5A440B56DFAA}"/>
+    <workbookView xWindow="-28920" yWindow="465" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{81D45181-2DFD-4E78-A47D-5A440B56DFAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Abstract Foundation" sheetId="1" r:id="rId1"/>
@@ -719,6 +719,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1121,7 +1125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427FFCC8-10E0-40E4-B7F2-4E135D95E774}">
   <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
@@ -1298,12 +1302,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1532,16 +1536,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B50E5EF5-344B-460B-808F-6C634723BBF8}">
   <dimension ref="I1:S26"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1587,12 +1591,15 @@
     </row>
     <row r="7" spans="9:19" x14ac:dyDescent="0.25">
       <c r="M7" s="2"/>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" spans="9:19" x14ac:dyDescent="0.25">
       <c r="M8" s="2"/>
+      <c r="O8" s="3"/>
     </row>
     <row r="9" spans="9:19" x14ac:dyDescent="0.25">
       <c r="M9" s="2"/>
+      <c r="O9" s="3"/>
     </row>
     <row r="10" spans="9:19" x14ac:dyDescent="0.25">
       <c r="M10" s="2"/>
